--- a/biology/Botanique/Dothidotthiaceae/Dothidotthiaceae.xlsx
+++ b/biology/Botanique/Dothidotthiaceae/Dothidotthiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dothidotthiaceae sont une famille de champignons ascomycètes phytopathogènes de l'ordre des Pleosporales.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille est décrite en 2008 dans l'ordre des Pleosporales, par les mycologues Pedro Willem Crous et Alan J. L. Phillips, pour le genre type Dothidotthia, auparavant classé dans les Botryosphaeriaceae de l'ordre des Botryosphaeriales[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille est décrite en 2008 dans l'ordre des Pleosporales, par les mycologues Pedro Willem Crous et Alan J. L. Phillips, pour le genre type Dothidotthia, auparavant classé dans les Botryosphaeriaceae de l'ordre des Botryosphaeriales.
 </t>
         </is>
       </c>
@@ -542,33 +556,35 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La liste des genres classés dans cette famille diffère selon les bases de données taxinomiques.
-Selon MycoBank                                            (25 juin 2022)[2] :
+Selon MycoBank                                            (25 juin 2022) :
 Dothidotthia Höhn., 1918
 Neodothidotthia Crous, 2019
 Thyrostroma Höhn., 1911
 Wilsonomyces Adask., J.M. Ogawa &amp; E.E. Butler, 1990
-Selon Index Fungorum                                      (25 juin 2022)[3] :
+Selon Index Fungorum                                      (25 juin 2022) :
 Dothidotthia Höhn., 1918
 Neodothidotthia Crous, 2019
-Selon GBIF       (25 juin 2022)[4] :
+Selon GBIF       (25 juin 2022) :
 Dothidotthia Höhn.
 Neodothidotthia
 Spencermartinsia A.J.L.Phillips, A.Alves &amp; P.W.Crous, 2008
 Thyrostroma Höhn.
-Selon la Base de données mondiale de l'OEPP               (25 juin 2022)[5] :
+Selon la Base de données mondiale de l'OEPP               (25 juin 2022) :
 Mycocentrospora
 Phaeomycocentrospora
 Pleiochaeta
 Thyrostroma
 Wilsonomyces
-Selon The Taxonomicon  (25 juin 2022)[6] :
+Selon The Taxonomicon  (25 juin 2022) :
 Dothidotthia Höhn. (1918)
 Muellerites L. Holm (1968)
 Thyrostroma Höhn. (1911)
-Selon BioLib                    (25 juin 2022)[7] :
+Selon BioLib                    (25 juin 2022) :
 Barriopsis A.J.L. Phillips, A. Alves &amp; Crous
 Dothidotthia Höhn.
 Spencermartinsia A.J.L. Phillips, A. Alves &amp; Crous</t>
